--- a/biology/Zoologie/Comaster/Comaster.xlsx
+++ b/biology/Zoologie/Comaster/Comaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comaster est un genre de crinoïde de la famille des Comasteridae (ordre des Comatulida).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bouche est excentrée à l'âge adulte. Les bras sont très nombreux, jusqu'à 180, et le centrodorsal petit, discoïdal ou pentagonal, avec ou sans cirrhes (ils disparaissent souvent chez les individus matures avec l'âge). Certaines pinnules orales portent de petits peignes (surtout sur les individus matures). Ce genre se distingue dans sa famille par les plaques irrégulières entre les bases des bras, formant un pavage aboral[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bouche est excentrée à l'âge adulte. Les bras sont très nombreux, jusqu'à 180, et le centrodorsal petit, discoïdal ou pentagonal, avec ou sans cirrhes (ils disparaissent souvent chez les individus matures avec l'âge). Certaines pinnules orales portent de petits peignes (surtout sur les individus matures). Ce genre se distingue dans sa famille par les plaques irrégulières entre les bases des bras, formant un pavage aboral. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014) :
 Comaster audax Rowe, Hoggett, Birtles &amp; Vail, 1986
 Comaster multifidus (Müller, 1841)
 Comaster nobilis (Carpenter, 1884) (parfois traité comme synonyme ou variante de Comaster schlegelii)
